--- a/calc/static/calc/piql_prices.xlsx
+++ b/calc/static/calc/piql_prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlfredoTrujillo\PycharmProjects\calculator\calc\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlfredoTrujillo\PycharmProjects\calculator\calc\static\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D842D-008A-4972-B5A7-FB0DEB3D2E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037456C5-AD53-41A9-815C-CAC4885772B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="1605" windowWidth="14400" windowHeight="10320" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="13" r:id="rId1"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD7F3CE-3398-4BFC-A88A-63EE7D330900}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -1103,7 +1103,7 @@
         <v>93</v>
       </c>
       <c r="B26">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C26" s="29">
         <v>0.9</v>
@@ -1114,7 +1114,7 @@
         <v>92</v>
       </c>
       <c r="B27">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C27" s="29">
         <v>0.9</v>

--- a/calc/static/calc/piql_prices.xlsx
+++ b/calc/static/calc/piql_prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlfredoTrujillo\PycharmProjects\calculator\calc\static\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037456C5-AD53-41A9-815C-CAC4885772B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6CDF4-CD3C-4C14-B082-1AF8ABFA062D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
   </bookViews>
@@ -365,9 +365,6 @@
     <t>awa_reel_pickup_fee</t>
   </si>
   <si>
-    <t>piqlReader_instalation</t>
-  </si>
-  <si>
     <t>piqlReader_platinum_service</t>
   </si>
   <si>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>piqlConnect_monthly</t>
+  </si>
+  <si>
+    <t>piqlReader_installation</t>
   </si>
 </sst>
 </file>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD7F3CE-3398-4BFC-A88A-63EE7D330900}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -790,7 +790,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
@@ -799,7 +799,7 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -832,7 +832,7 @@
         <v>521</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
@@ -843,7 +843,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -857,12 +857,12 @@
         <v>675</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>830</v>
@@ -885,7 +885,7 @@
         <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
@@ -1238,7 +1238,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B38">
         <v>3000</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39">
         <v>4000</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40">
         <v>2500</v>

--- a/calc/static/calc/piql_prices.xlsx
+++ b/calc/static/calc/piql_prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlfredoTrujillo\PycharmProjects\calculator\calc\static\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6CDF4-CD3C-4C14-B082-1AF8ABFA062D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3C6A69-92EE-4549-A70F-293A9C02E94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
   </bookViews>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD7F3CE-3398-4BFC-A88A-63EE7D330900}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>

--- a/calc/static/calc/piql_prices.xlsx
+++ b/calc/static/calc/piql_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlfredoTrujillo\PycharmProjects\calculator\calc\static\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3C6A69-92EE-4549-A70F-293A9C02E94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F540FB-820D-4AF1-A840-86F98F00BCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
+    <workbookView xWindow="14790" yWindow="3120" windowWidth="9600" windowHeight="4970" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="13" r:id="rId1"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD7F3CE-3398-4BFC-A88A-63EE7D330900}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>

--- a/calc/static/calc/piql_prices.xlsx
+++ b/calc/static/calc/piql_prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlfredoTrujillo\PycharmProjects\calculator\calc\static\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F540FB-820D-4AF1-A840-86F98F00BCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18E8FFE-A126-4F89-A859-C935EC0A69B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14790" yWindow="3120" windowWidth="9600" windowHeight="4970" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
   <si>
     <t>piqlConnect</t>
   </si>
@@ -269,12 +269,6 @@
     <t>professional_services_day</t>
   </si>
   <si>
-    <t>online_storage_monthly_gb</t>
-  </si>
-  <si>
-    <t>online_storage_yearly_gb</t>
-  </si>
-  <si>
     <t>offline_digital_less_reel</t>
   </si>
   <si>
@@ -393,6 +387,15 @@
   </si>
   <si>
     <t>piqlReader_installation</t>
+  </si>
+  <si>
+    <t>online_storage_0_50_tb</t>
+  </si>
+  <si>
+    <t>online_storage_51_100_tb</t>
+  </si>
+  <si>
+    <t>online_storage_100_up_tb</t>
   </si>
 </sst>
 </file>
@@ -776,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD7F3CE-3398-4BFC-A88A-63EE7D330900}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -790,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
@@ -799,7 +802,7 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -832,7 +835,7 @@
         <v>521</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
@@ -843,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -857,12 +860,12 @@
         <v>675</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>830</v>
@@ -885,7 +888,7 @@
         <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
@@ -901,44 +904,43 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>7.0000000000000007E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>6.2E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B11" s="27">
-        <v>0.57599999999999996</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C11" s="27">
-        <f>0.04*12</f>
-        <v>0.48</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>1800</v>
-      </c>
-      <c r="C12">
-        <v>10.58</v>
+        <v>116</v>
+      </c>
+      <c r="B12" s="27">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>1800</v>
       </c>
       <c r="C13">
         <v>10.58</v>
@@ -946,120 +948,120 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>9.58</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>9.25</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16">
-        <v>1800</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>1270</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B17">
-        <v>0.03</v>
+        <v>1800</v>
       </c>
       <c r="C17">
         <v>1270</v>
       </c>
-      <c r="D17">
-        <v>1270</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18">
-        <v>1.6E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C18">
         <v>1270</v>
       </c>
       <c r="D18">
-        <v>1150</v>
+        <v>1270</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B19">
-        <v>1.0999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C19">
         <v>1270</v>
       </c>
       <c r="D19">
-        <v>1110</v>
+        <v>1150</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C20">
         <v>1270</v>
       </c>
-      <c r="E20">
-        <f>1300000*B20</f>
-        <v>11700</v>
+      <c r="D20">
+        <v>1110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>7.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C21">
         <v>1270</v>
       </c>
+      <c r="E21">
+        <f>1300000*B21</f>
+        <v>11700</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C22">
         <v>1270</v>
@@ -1067,32 +1069,32 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0.1</v>
+        <v>87</v>
+      </c>
+      <c r="B23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C23">
+        <v>1270</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24">
-        <v>200</v>
+        <v>88</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0.75</v>
       </c>
       <c r="C24" s="29">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C25" s="29">
         <v>0.9</v>
@@ -1100,10 +1102,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="C26" s="29">
         <v>0.9</v>
@@ -1111,10 +1113,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C27" s="29">
         <v>0.9</v>
@@ -1122,10 +1124,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="C28" s="29">
         <v>0.9</v>
@@ -1133,10 +1135,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B29">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C29" s="29">
         <v>0.9</v>
@@ -1144,10 +1146,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C30" s="29">
         <v>0.9</v>
@@ -1155,10 +1157,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B31">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="C31" s="29">
         <v>0.9</v>
@@ -1166,60 +1168,60 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="C32" s="29">
         <v>0.9</v>
       </c>
-      <c r="D32" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B33">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="C33" s="29">
         <v>0.9</v>
       </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B34">
-        <v>5.5999999999999999E-3</v>
+        <v>360</v>
       </c>
       <c r="C34" s="29">
         <v>0.9</v>
       </c>
-      <c r="D34" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B35">
-        <v>70</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C35" s="29">
         <v>0.9</v>
       </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C36" s="29">
         <v>0.9</v>
@@ -1227,45 +1229,56 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B37">
-        <v>79900</v>
-      </c>
-      <c r="C37">
-        <v>56910</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="29">
+        <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>3000</v>
+        <v>79900</v>
       </c>
       <c r="C38">
-        <v>2450</v>
+        <v>56910</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B39">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C39">
-        <v>3100</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B40">
+        <v>4000</v>
+      </c>
+      <c r="C40">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41">
         <v>2500</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>2000</v>
       </c>
     </row>

--- a/calc/static/calc/piql_prices.xlsx
+++ b/calc/static/calc/piql_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlfredoTrujillo\PycharmProjects\calculator\calc\static\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18E8FFE-A126-4F89-A859-C935EC0A69B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BFE7C3-0434-4F79-A08E-B9102903B0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="17770" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="13" r:id="rId1"/>
@@ -782,7 +782,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>

--- a/calc/static/calc/piql_prices.xlsx
+++ b/calc/static/calc/piql_prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlfredoTrujillo\PycharmProjects\calculator\calc\static\calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlfredoTrujillo\Documents\Piql (no sync)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F540FB-820D-4AF1-A840-86F98F00BCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB8C5C5-3B9A-41F6-B783-6D6BE439F6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14790" yWindow="3120" windowWidth="9600" windowHeight="4970" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="17770" tabRatio="781" xr2:uid="{D64C4359-5929-4BBC-9F5D-572B5F120BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
   <si>
     <t>piqlConnect</t>
   </si>
@@ -269,12 +269,6 @@
     <t>professional_services_day</t>
   </si>
   <si>
-    <t>online_storage_monthly_gb</t>
-  </si>
-  <si>
-    <t>online_storage_yearly_gb</t>
-  </si>
-  <si>
     <t>offline_digital_less_reel</t>
   </si>
   <si>
@@ -393,6 +387,15 @@
   </si>
   <si>
     <t>piqlReader_installation</t>
+  </si>
+  <si>
+    <t>online_storage_0_50_tb</t>
+  </si>
+  <si>
+    <t>online_storage_51_100_tb</t>
+  </si>
+  <si>
+    <t>online_storage_100_up_tb</t>
   </si>
 </sst>
 </file>
@@ -776,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD7F3CE-3398-4BFC-A88A-63EE7D330900}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -790,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
@@ -799,7 +802,7 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -832,7 +835,7 @@
         <v>521</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
@@ -843,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -857,12 +860,12 @@
         <v>675</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>830</v>
@@ -885,7 +888,7 @@
         <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
@@ -901,44 +904,43 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>7.0000000000000007E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>6.2E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B11" s="27">
-        <v>0.57599999999999996</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C11" s="27">
-        <f>0.04*12</f>
-        <v>0.48</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>1800</v>
-      </c>
-      <c r="C12">
-        <v>10.58</v>
+        <v>116</v>
+      </c>
+      <c r="B12" s="27">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>1800</v>
       </c>
       <c r="C13">
         <v>10.58</v>
@@ -946,120 +948,120 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>9.58</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>9.25</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16">
-        <v>1800</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>1270</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B17">
-        <v>0.03</v>
+        <v>1800</v>
       </c>
       <c r="C17">
         <v>1270</v>
       </c>
-      <c r="D17">
-        <v>1270</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18">
-        <v>1.6E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C18">
         <v>1270</v>
       </c>
       <c r="D18">
-        <v>1150</v>
+        <v>1270</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B19">
-        <v>1.0999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C19">
         <v>1270</v>
       </c>
       <c r="D19">
-        <v>1110</v>
+        <v>1150</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C20">
         <v>1270</v>
       </c>
-      <c r="E20">
-        <f>1300000*B20</f>
-        <v>11700</v>
+      <c r="D20">
+        <v>1110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>7.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C21">
         <v>1270</v>
       </c>
+      <c r="E21">
+        <f>1300000*B21</f>
+        <v>11700</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C22">
         <v>1270</v>
@@ -1067,32 +1069,32 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0.1</v>
+        <v>87</v>
+      </c>
+      <c r="B23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C23">
+        <v>1270</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24">
-        <v>200</v>
+        <v>88</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0.75</v>
       </c>
       <c r="C24" s="29">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C25" s="29">
         <v>0.9</v>
@@ -1100,10 +1102,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="C26" s="29">
         <v>0.9</v>
@@ -1111,10 +1113,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C27" s="29">
         <v>0.9</v>
@@ -1122,10 +1124,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="C28" s="29">
         <v>0.9</v>
@@ -1133,10 +1135,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B29">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C29" s="29">
         <v>0.9</v>
@@ -1144,10 +1146,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C30" s="29">
         <v>0.9</v>
@@ -1155,10 +1157,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B31">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="C31" s="29">
         <v>0.9</v>
@@ -1166,60 +1168,60 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="C32" s="29">
         <v>0.9</v>
       </c>
-      <c r="D32" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B33">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="C33" s="29">
         <v>0.9</v>
       </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B34">
-        <v>5.5999999999999999E-3</v>
+        <v>360</v>
       </c>
       <c r="C34" s="29">
         <v>0.9</v>
       </c>
-      <c r="D34" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B35">
-        <v>70</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C35" s="29">
         <v>0.9</v>
       </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C36" s="29">
         <v>0.9</v>
@@ -1227,45 +1229,56 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B37">
-        <v>79900</v>
-      </c>
-      <c r="C37">
-        <v>56910</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="29">
+        <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>3000</v>
+        <v>79900</v>
       </c>
       <c r="C38">
-        <v>2450</v>
+        <v>56910</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B39">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C39">
-        <v>3100</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B40">
+        <v>4000</v>
+      </c>
+      <c r="C40">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41">
         <v>2500</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>2000</v>
       </c>
     </row>
